--- a/100runs/run055/NotionalETEOutput055.xlsx
+++ b/100runs/run055/NotionalETEOutput055.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_130.MISSILE_HIGHWIND_130</t>
+    <t>MISSILE_HIGHWIND_205.MISSILE_HIGHWIND_205</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_225.MISSILE_SOMERSAULT_225</t>
+    <t>MISSILE_SOMERSAULT_267.MISSILE_SOMERSAULT_267</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_119.MISSILE_SOMERSAULT_119</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,28 +477,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G2">
-        <v>-176.2120573570306</v>
+        <v>4841122.893771538</v>
       </c>
       <c r="H2">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I2">
-        <v>-2223.686378022009</v>
+        <v>1114861.683171905</v>
       </c>
       <c r="J2">
-        <v>2224.231934286489</v>
+        <v>4843229.024309051</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984366.676745474</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,28 +512,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G3">
-        <v>-176.2120573570306</v>
+        <v>4841122.893771538</v>
       </c>
       <c r="H3">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I3">
-        <v>-2179.784887827155</v>
+        <v>1114891.297177021</v>
       </c>
       <c r="J3">
-        <v>2170.12572618314</v>
+        <v>4843180.372663058</v>
       </c>
       <c r="K3">
-        <v>309.1263827834515</v>
+        <v>3984670.472459574</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,28 +547,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G4">
-        <v>-176.2120573570306</v>
+        <v>4841122.893771538</v>
       </c>
       <c r="H4">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I4">
-        <v>-2134.802363824884</v>
+        <v>1114921.64039977</v>
       </c>
       <c r="J4">
-        <v>2116.019518079791</v>
+        <v>4843131.721017065</v>
       </c>
       <c r="K4">
-        <v>602.838307136851</v>
+        <v>3984959.119526819</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,28 +582,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G5">
-        <v>-176.2120573570306</v>
+        <v>4841122.893771538</v>
       </c>
       <c r="H5">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I5">
-        <v>-2088.71218655222</v>
+        <v>1114952.730796463</v>
       </c>
       <c r="J5">
-        <v>2061.913309976442</v>
+        <v>4843083.069371073</v>
       </c>
       <c r="K5">
-        <v>881.1357730602004</v>
+        <v>3985232.61794721</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,28 +617,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G6">
-        <v>-176.2120573570306</v>
+        <v>4841122.893771538</v>
       </c>
       <c r="H6">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I6">
-        <v>-2041.487081066402</v>
+        <v>1114984.586765572</v>
       </c>
       <c r="J6">
-        <v>2007.807101873093</v>
+        <v>4843034.41772508</v>
       </c>
       <c r="K6">
-        <v>1144.018780553498</v>
+        <v>3985490.967720747</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,28 +652,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G7">
-        <v>-176.2120573570306</v>
+        <v>4841122.893771538</v>
       </c>
       <c r="H7">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I7">
-        <v>-1993.099100804296</v>
+        <v>1115017.227158613</v>
       </c>
       <c r="J7">
-        <v>1953.700893769744</v>
+        <v>4842985.766079088</v>
       </c>
       <c r="K7">
-        <v>1391.487329616747</v>
+        <v>3985734.168847428</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,28 +687,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G8">
-        <v>-176.2120573570306</v>
+        <v>4841122.893771538</v>
       </c>
       <c r="H8">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I8">
-        <v>-1943.519611044361</v>
+        <v>1115050.671291305</v>
       </c>
       <c r="J8">
-        <v>1899.594685666395</v>
+        <v>4842937.114433094</v>
       </c>
       <c r="K8">
-        <v>1623.541420249944</v>
+        <v>3985962.221327255</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,28 +722,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G9">
-        <v>-176.2120573570306</v>
+        <v>4841122.893771538</v>
       </c>
       <c r="H9">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I9">
-        <v>-1892.719271961383</v>
+        <v>1115084.938954995</v>
       </c>
       <c r="J9">
-        <v>1845.488477563046</v>
+        <v>4842888.462787102</v>
       </c>
       <c r="K9">
-        <v>1840.18105245309</v>
+        <v>3986175.125160228</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,28 +757,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>177.6027108386976</v>
+        <v>1116579.770207193</v>
       </c>
       <c r="G10">
-        <v>-147.1144866442889</v>
+        <v>4841139.406585054</v>
       </c>
       <c r="H10">
-        <v>1509.687741585754</v>
+        <v>3985228.647061279</v>
       </c>
       <c r="I10">
-        <v>-1840.668021263941</v>
+        <v>1115120.050428379</v>
       </c>
       <c r="J10">
-        <v>1791.382269459697</v>
+        <v>4842839.811141109</v>
       </c>
       <c r="K10">
-        <v>2041.406226226185</v>
+        <v>3986372.880346345</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,28 +792,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>137.8404221141232</v>
+        <v>1116531.089588213</v>
       </c>
       <c r="G11">
-        <v>-118.0169159315472</v>
+        <v>4841155.919398569</v>
       </c>
       <c r="H11">
-        <v>1859.925138860572</v>
+        <v>3985427.901483988</v>
       </c>
       <c r="I11">
-        <v>-1787.335056404347</v>
+        <v>1115156.026489493</v>
       </c>
       <c r="J11">
-        <v>1737.276061356348</v>
+        <v>4842791.159495117</v>
       </c>
       <c r="K11">
-        <v>2227.216941569229</v>
+        <v>3986555.486885609</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,28 +827,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>114.4820721801616</v>
+        <v>1116502.492166645</v>
       </c>
       <c r="G12">
-        <v>-88.9193452188055</v>
+        <v>4841172.432212085</v>
       </c>
       <c r="H12">
-        <v>2068.544444497957</v>
+        <v>3985546.587608412</v>
       </c>
       <c r="I12">
-        <v>-1732.688816350513</v>
+        <v>1115192.888428014</v>
       </c>
       <c r="J12">
-        <v>1683.169853252999</v>
+        <v>4842742.507849123</v>
       </c>
       <c r="K12">
-        <v>2397.613198482223</v>
+        <v>3986722.944778018</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,28 +862,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>99.73656804659102</v>
+        <v>1116484.439376139</v>
       </c>
       <c r="G13">
-        <v>-59.82177450606379</v>
+        <v>4841188.9450256</v>
       </c>
       <c r="H13">
-        <v>2217.630562197162</v>
+        <v>3985631.404559849</v>
       </c>
       <c r="I13">
-        <v>-1676.696962908972</v>
+        <v>1115230.65805786</v>
       </c>
       <c r="J13">
-        <v>1629.06364514965</v>
+        <v>4842693.856203131</v>
       </c>
       <c r="K13">
-        <v>2552.594996965166</v>
+        <v>3986875.254023571</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -894,28 +897,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>89.45311331935419</v>
+        <v>1116471.84943332</v>
       </c>
       <c r="G14">
-        <v>-30.72420379332209</v>
+        <v>4841205.457839116</v>
       </c>
       <c r="H14">
-        <v>2333.723842176587</v>
+        <v>3985697.451474492</v>
       </c>
       <c r="I14">
-        <v>-1619.326361587995</v>
+        <v>1115269.357730092</v>
       </c>
       <c r="J14">
-        <v>1574.957437046301</v>
+        <v>4842645.204557138</v>
       </c>
       <c r="K14">
-        <v>2692.162337018058</v>
+        <v>3987012.414622271</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -929,28 +932,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>81.78134813850311</v>
+        <v>1116462.456958952</v>
       </c>
       <c r="G15">
-        <v>-1.62663308058041</v>
+        <v>4841221.970652632</v>
       </c>
       <c r="H15">
-        <v>2428.813243495354</v>
+        <v>3985751.549020651</v>
       </c>
       <c r="I15">
-        <v>-1560.543061989473</v>
+        <v>1115309.01034615</v>
       </c>
       <c r="J15">
-        <v>1520.851228942952</v>
+        <v>4842596.552911147</v>
       </c>
       <c r="K15">
-        <v>2816.315218640899</v>
+        <v>3987134.426574116</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -964,28 +967,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>75.78309909732356</v>
+        <v>1116455.113355616</v>
       </c>
       <c r="G16">
-        <v>27.4709376321613</v>
+        <v>4841238.483466147</v>
       </c>
       <c r="H16">
-        <v>2509.347025222477</v>
+        <v>3985797.365693318</v>
       </c>
       <c r="I16">
-        <v>-1500.312277717983</v>
+        <v>1115349.639371399</v>
       </c>
       <c r="J16">
-        <v>1466.745020839603</v>
+        <v>4842547.901265153</v>
       </c>
       <c r="K16">
-        <v>2925.05364183369</v>
+        <v>3987241.289879106</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -999,28 +1002,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>70.93007887617568</v>
+        <v>1116449.171845812</v>
       </c>
       <c r="G17">
-        <v>56.56850834490299</v>
+        <v>4841254.996279663</v>
       </c>
       <c r="H17">
-        <v>2579.19541348323</v>
+        <v>3985837.103312396</v>
       </c>
       <c r="I17">
-        <v>-1438.598365795111</v>
+        <v>1115391.268849017</v>
       </c>
       <c r="J17">
-        <v>1412.638812736254</v>
+        <v>4842499.24961916</v>
       </c>
       <c r="K17">
-        <v>3018.377606596429</v>
+        <v>3987333.004537242</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1034,28 +1037,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>66.90034286464484</v>
+        <v>1116444.238275596</v>
       </c>
       <c r="G18">
-        <v>85.66607905764468</v>
+        <v>4841271.509093179</v>
       </c>
       <c r="H18">
-        <v>2640.864628561125</v>
+        <v>3985872.187697859</v>
       </c>
       <c r="I18">
-        <v>-1375.364805566898</v>
+        <v>1115433.923414222</v>
       </c>
       <c r="J18">
-        <v>1358.532604632905</v>
+        <v>4842450.597973168</v>
       </c>
       <c r="K18">
-        <v>3096.287112929118</v>
+        <v>3987409.570548523</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1069,28 +1072,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>63.48544479483451</v>
+        <v>1116440.057446043</v>
       </c>
       <c r="G19">
-        <v>114.7636497703864</v>
+        <v>4841288.021906695</v>
       </c>
       <c r="H19">
-        <v>2696.070985682844</v>
+        <v>3985903.595282839</v>
       </c>
       <c r="I19">
-        <v>-1310.574177091873</v>
+        <v>1115477.628308855</v>
       </c>
       <c r="J19">
-        <v>1304.426396529556</v>
+        <v>4842401.946327175</v>
       </c>
       <c r="K19">
-        <v>3158.782160831756</v>
+        <v>3987470.98791295</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1104,28 +1107,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>60.54384326639948</v>
+        <v>1116436.456069266</v>
       </c>
       <c r="G20">
-        <v>143.8612204831281</v>
+        <v>4841304.534720211</v>
       </c>
       <c r="H20">
-        <v>2746.041506890677</v>
+        <v>3985932.024135478</v>
       </c>
       <c r="I20">
-        <v>-1244.188138996936</v>
+        <v>1115522.40939631</v>
       </c>
       <c r="J20">
-        <v>1250.320188426207</v>
+        <v>4842353.294681182</v>
       </c>
       <c r="K20">
-        <v>3205.862750304344</v>
+        <v>3987517.256630522</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1139,28 +1142,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>57.97567313442282</v>
+        <v>1116433.311881251</v>
       </c>
       <c r="G21">
-        <v>172.9587911958698</v>
+        <v>4841321.047533727</v>
       </c>
       <c r="H21">
-        <v>2791.683872272528</v>
+        <v>3985957.990646296</v>
       </c>
       <c r="I21">
-        <v>-1176.167405787946</v>
+        <v>1115568.293176845</v>
       </c>
       <c r="J21">
-        <v>1196.213980322858</v>
+        <v>4842304.643035189</v>
       </c>
       <c r="K21">
-        <v>3237.52888134688</v>
+        <v>3987548.376701239</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1174,28 +1177,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>55.70822163748212</v>
+        <v>1116430.535860405</v>
       </c>
       <c r="G22">
-        <v>202.0563619086115</v>
+        <v>4841337.560347242</v>
       </c>
       <c r="H22">
-        <v>2833.688442506799</v>
+        <v>3985981.887570092</v>
       </c>
       <c r="I22">
-        <v>-1106.471724601612</v>
+        <v>1115615.306803264</v>
       </c>
       <c r="J22">
-        <v>1142.107772219509</v>
+        <v>4842255.991389197</v>
       </c>
       <c r="K22">
-        <v>3253.780553959366</v>
+        <v>3987564.348125102</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1209,28 +1212,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>53.68713572100689</v>
+        <v>1116428.061462764</v>
       </c>
       <c r="G23">
-        <v>231.1539326213532</v>
+        <v>4841354.073160758</v>
       </c>
       <c r="H23">
-        <v>2872.592535441378</v>
+        <v>3986004.02059369</v>
       </c>
       <c r="I23">
-        <v>-1035.059851384915</v>
+        <v>1115663.478096982</v>
       </c>
       <c r="J23">
-        <v>1088.00156411616</v>
+        <v>4842207.339743204</v>
       </c>
       <c r="K23">
-        <v>3254.6177681418</v>
+        <v>3987565.170902111</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1244,28 +1247,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>51.87087083697759</v>
+        <v>1116425.837825704</v>
       </c>
       <c r="G24">
-        <v>260.2515033340949</v>
+        <v>4841370.585974275</v>
       </c>
       <c r="H24">
-        <v>2908.822566339417</v>
+        <v>3986024.63231005</v>
       </c>
       <c r="I24">
-        <v>-961.889526487976</v>
+        <v>1115712.835564491</v>
       </c>
       <c r="J24">
-        <v>1033.895356012811</v>
+        <v>4842158.688097212</v>
       </c>
       <c r="K24">
-        <v>3240.040523894184</v>
+        <v>3987550.845032264</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1279,28 +1282,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>50.22705951372199</v>
+        <v>1116423.825322016</v>
       </c>
       <c r="G25">
-        <v>289.3490740468366</v>
+        <v>4841387.09878779</v>
       </c>
       <c r="H25">
-        <v>2942.722613486386</v>
+        <v>3986043.918469599</v>
       </c>
       <c r="I25">
-        <v>-886.9174496559137</v>
+        <v>1115763.408414229</v>
       </c>
       <c r="J25">
-        <v>979.7891479094623</v>
+        <v>4842110.036451219</v>
       </c>
       <c r="K25">
-        <v>3210.048821216517</v>
+        <v>3987521.370515563</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1314,28 +1317,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>48.7300623689942</v>
+        <v>1116421.99256163</v>
       </c>
       <c r="G26">
-        <v>318.4466447595783</v>
+        <v>4841403.611601306</v>
       </c>
       <c r="H26">
-        <v>2974.574340399703</v>
+        <v>3986062.039314226</v>
       </c>
       <c r="I26">
-        <v>-810.0992544049084</v>
+        <v>1115815.226573866</v>
       </c>
       <c r="J26">
-        <v>925.6829398061133</v>
+        <v>4842061.384805227</v>
       </c>
       <c r="K26">
-        <v>3164.6426601088</v>
+        <v>3987476.747352008</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1349,28 +1352,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>47.3592724220715</v>
+        <v>1116420.314315603</v>
       </c>
       <c r="G27">
-        <v>347.5442154723199</v>
+        <v>4841420.124414821</v>
       </c>
       <c r="H27">
-        <v>3004.611234739044</v>
+        <v>3986079.127677971</v>
       </c>
       <c r="I27">
-        <v>-731.3894817672908</v>
+        <v>1115868.320708012</v>
       </c>
       <c r="J27">
-        <v>871.5767317027642</v>
+        <v>4842012.733159233</v>
       </c>
       <c r="K27">
-        <v>3103.822040571031</v>
+        <v>3987416.975541598</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1384,28 +1387,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>46.09791360434869</v>
+        <v>1116418.77004514</v>
       </c>
       <c r="G28">
-        <v>376.6417861850617</v>
+        <v>4841436.637228337</v>
       </c>
       <c r="H28">
-        <v>3033.029004908627</v>
+        <v>3986095.294901785</v>
       </c>
       <c r="I28">
-        <v>-650.7415533901354</v>
+        <v>1115922.722236366</v>
       </c>
       <c r="J28">
-        <v>817.4705235994153</v>
+        <v>4841964.08151324</v>
       </c>
       <c r="K28">
-        <v>3027.586962603212</v>
+        <v>3987342.055084333</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1419,28 +1422,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>44.93217194670575</v>
+        <v>1116417.342837922</v>
       </c>
       <c r="G29">
-        <v>405.7393568978034</v>
+        <v>4841453.150041853</v>
       </c>
       <c r="H29">
-        <v>3059.993315093702</v>
+        <v>3986110.635234089</v>
       </c>
       <c r="I29">
-        <v>-568.1077439714253</v>
+        <v>1115978.463352307</v>
       </c>
       <c r="J29">
-        <v>763.3643154960662</v>
+        <v>4841915.429867248</v>
       </c>
       <c r="K29">
-        <v>2935.937426205342</v>
+        <v>3987251.985980214</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1454,28 +1457,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>43.85055587479883</v>
+        <v>1116416.018624916</v>
       </c>
       <c r="G30">
-        <v>434.836927610545</v>
+        <v>4841469.662855369</v>
       </c>
       <c r="H30">
-        <v>3085.645636703034</v>
+        <v>3986125.229159733</v>
       </c>
       <c r="I30">
-        <v>-483.4391530174903</v>
+        <v>1116035.577041947</v>
       </c>
       <c r="J30">
-        <v>709.2581073927171</v>
+        <v>4841866.778221255</v>
       </c>
       <c r="K30">
-        <v>2828.873431377421</v>
+        <v>3987146.768229241</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1489,28 +1492,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>42.84341752250818</v>
+        <v>1116414.785594325</v>
       </c>
       <c r="G31">
-        <v>463.9344983232867</v>
+        <v>4841486.175668885</v>
       </c>
       <c r="H31">
-        <v>3110.107741168132</v>
+        <v>3986139.145956001</v>
       </c>
       <c r="I31">
-        <v>-396.6856759049903</v>
+        <v>1116094.09710365</v>
       </c>
       <c r="J31">
-        <v>655.1518992893683</v>
+        <v>4841818.126575262</v>
       </c>
       <c r="K31">
-        <v>2706.39497811945</v>
+        <v>3987026.401831412</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1524,28 +1527,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>41.90258928843379</v>
+        <v>1116413.633746625</v>
       </c>
       <c r="G32">
-        <v>493.0320690360285</v>
+        <v>4841502.688482401</v>
       </c>
       <c r="H32">
-        <v>3133.485195914263</v>
+        <v>3986152.445681519</v>
       </c>
       <c r="I32">
-        <v>-307.7959742303306</v>
+        <v>1116154.058168036</v>
       </c>
       <c r="J32">
-        <v>601.0456911860192</v>
+        <v>4841769.474929269</v>
       </c>
       <c r="K32">
-        <v>2568.502066431427</v>
+        <v>3986890.886786729</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1559,28 +1562,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>41.02110423840169</v>
+        <v>1116412.554552262</v>
       </c>
       <c r="G33">
-        <v>522.1296397487702</v>
+        <v>4841519.201295916</v>
       </c>
       <c r="H33">
-        <v>3155.87011766699</v>
+        <v>3986165.180742641</v>
       </c>
       <c r="I33">
-        <v>-216.7174454289578</v>
+        <v>1116215.495718469</v>
       </c>
       <c r="J33">
-        <v>546.9394830826703</v>
+        <v>4841720.823283277</v>
       </c>
       <c r="K33">
-        <v>2415.194696313354</v>
+        <v>3986740.223095191</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1594,28 +1597,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>40.19297842495931</v>
+        <v>1116411.540685141</v>
       </c>
       <c r="G34">
-        <v>551.2272104615118</v>
+        <v>4841535.714109432</v>
       </c>
       <c r="H34">
-        <v>3177.343364724406</v>
+        <v>3986177.397140659</v>
       </c>
       <c r="I34">
-        <v>-123.3961916465612</v>
+        <v>1116278.44611206</v>
       </c>
       <c r="J34">
-        <v>492.8332749793212</v>
+        <v>4841672.171637285</v>
       </c>
       <c r="K34">
-        <v>2246.47286776523</v>
+        <v>3986574.410756799</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1629,28 +1632,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>39.4130395535785</v>
+        <v>1116410.585812868</v>
       </c>
       <c r="G35">
-        <v>580.3247811742535</v>
+        <v>4841552.226922948</v>
       </c>
       <c r="H35">
-        <v>3197.97630002466</v>
+        <v>3986189.13547484</v>
       </c>
       <c r="I35">
-        <v>-27.77698784375271</v>
+        <v>1116342.94660118</v>
       </c>
       <c r="J35">
-        <v>438.7270668759722</v>
+        <v>4841623.519991292</v>
       </c>
       <c r="K35">
-        <v>2062.336580787055</v>
+        <v>3986393.449771552</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1664,28 +1667,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>38.67679077299098</v>
+        <v>1116409.684429987</v>
       </c>
       <c r="G36">
-        <v>609.4223518869953</v>
+        <v>4841568.739736464</v>
       </c>
       <c r="H36">
-        <v>3217.832222056637</v>
+        <v>3986200.431756484</v>
       </c>
       <c r="I36">
-        <v>70.19675088464572</v>
+        <v>1116409.035355506</v>
       </c>
       <c r="J36">
-        <v>384.6208587726233</v>
+        <v>4841574.868345299</v>
       </c>
       <c r="K36">
-        <v>1862.785835378829</v>
+        <v>3986197.340139451</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1699,28 +1702,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>37.98030138883614</v>
+        <v>1116408.831724184</v>
       </c>
       <c r="G37">
-        <v>638.5199225997369</v>
+        <v>4841585.25254998</v>
       </c>
       <c r="H37">
-        <v>3236.967535987902</v>
+        <v>3986211.318075194</v>
       </c>
       <c r="I37">
-        <v>170.5830027950439</v>
+        <v>1116476.751484605</v>
       </c>
       <c r="J37">
-        <v>330.5146506692742</v>
+        <v>4841526.216699307</v>
       </c>
       <c r="K37">
-        <v>1647.820631540553</v>
+        <v>3985986.081860495</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1734,28 +1737,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>37.32011843172209</v>
+        <v>1116408.023468019</v>
       </c>
       <c r="G38">
-        <v>667.6174933124787</v>
+        <v>4841601.765363495</v>
       </c>
       <c r="H38">
-        <v>3255.432719628903</v>
+        <v>3986221.823148425</v>
       </c>
       <c r="I38">
-        <v>273.4411738050783</v>
+        <v>1116546.135061087</v>
       </c>
       <c r="J38">
-        <v>276.4084425659254</v>
+        <v>4841477.565053314</v>
       </c>
       <c r="K38">
-        <v>1417.440969272226</v>
+        <v>3985759.674934685</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1769,28 +1772,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>36.69319453586142</v>
+        <v>1116407.255930629</v>
       </c>
       <c r="G39">
-        <v>696.7150640252204</v>
+        <v>4841618.278177011</v>
       </c>
       <c r="H39">
-        <v>3273.273125907282</v>
+        <v>3986231.972778023</v>
       </c>
       <c r="I39">
-        <v>378.8321326484514</v>
+        <v>1116617.227144307</v>
       </c>
       <c r="J39">
-        <v>222.3022344625763</v>
+        <v>4841428.913407321</v>
       </c>
       <c r="K39">
-        <v>1171.646848573847</v>
+        <v>3985518.119362019</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1804,28 +1807,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>36.09682868938361</v>
+        <v>1116406.525805189</v>
       </c>
       <c r="G40">
-        <v>725.812634737962</v>
+        <v>4841634.790990528</v>
       </c>
       <c r="H40">
-        <v>3290.529653972864</v>
+        <v>3986241.790232026</v>
       </c>
       <c r="I40">
-        <v>486.8182468954394</v>
+        <v>1116690.069804673</v>
       </c>
       <c r="J40">
-        <v>168.1960263592272</v>
+        <v>4841380.261761328</v>
       </c>
       <c r="K40">
-        <v>910.4382694454181</v>
+        <v>3985261.4151425</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1839,28 +1842,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>35.5286172275001</v>
+        <v>1116405.830148914</v>
       </c>
       <c r="G41">
-        <v>754.9102054507038</v>
+        <v>4841651.303804043</v>
       </c>
       <c r="H41">
-        <v>3307.239313924277</v>
+        <v>3986251.296565938</v>
       </c>
       <c r="I41">
-        <v>597.4634198603542</v>
+        <v>1116764.706148537</v>
       </c>
       <c r="J41">
-        <v>114.0898182558784</v>
+        <v>4841331.610115335</v>
       </c>
       <c r="K41">
-        <v>633.8152318869388</v>
+        <v>3984989.562276126</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1874,28 +1877,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>34.9864130401548</v>
+        <v>1116405.166333115</v>
       </c>
       <c r="G42">
-        <v>784.0077761634453</v>
+        <v>4841667.816617559</v>
       </c>
       <c r="H42">
-        <v>3323.435704771689</v>
+        <v>3986260.510894658</v>
       </c>
       <c r="I42">
-        <v>710.8331284178398</v>
+        <v>1116841.180343704</v>
       </c>
       <c r="J42">
-        <v>59.98361015252928</v>
+        <v>4841282.958469343</v>
       </c>
       <c r="K42">
-        <v>341.7777358984079</v>
+        <v>3984702.560762897</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1909,28 +1912,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>34.46829141543902</v>
+        <v>1116404.532001385</v>
       </c>
       <c r="G43">
-        <v>813.1053468761872</v>
+        <v>4841684.329431075</v>
       </c>
       <c r="H43">
-        <v>3339.149421156289</v>
+        <v>3986269.450623856</v>
       </c>
       <c r="I43">
-        <v>826.9944617503332</v>
+        <v>1116919.537645572</v>
       </c>
       <c r="J43">
-        <v>5.877402049180191</v>
+        <v>4841234.30682335</v>
       </c>
       <c r="K43">
-        <v>34.32578147982633</v>
+        <v>3984400.410602814</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1944,28 +1947,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>33.9725212800033</v>
+        <v>1116403.925034386</v>
       </c>
       <c r="G44">
-        <v>842.2029175889288</v>
+        <v>4841700.84224459</v>
       </c>
       <c r="H44">
-        <v>3354.408401201575</v>
+        <v>3986278.131647881</v>
       </c>
       <c r="I44">
-        <v>946.0161610496712</v>
+        <v>1116999.824423912</v>
       </c>
       <c r="J44">
-        <v>-48.22880605416865</v>
+        <v>4841185.655177358</v>
       </c>
       <c r="K44">
-        <v>-288.5406313688051</v>
+        <v>3984083.111795876</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1979,28 +1982,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>33.49754085702079</v>
+        <v>1116403.343520048</v>
       </c>
       <c r="G45">
-        <v>871.3004883016705</v>
+        <v>4841717.355058106</v>
       </c>
       <c r="H45">
-        <v>3369.238225434067</v>
+        <v>3986286.568519812</v>
       </c>
       <c r="I45">
-        <v>1067.9686601963</v>
+        <v>1117082.088190305</v>
       </c>
       <c r="J45">
-        <v>-102.3350141575177</v>
+        <v>4841137.003531365</v>
       </c>
       <c r="K45">
-        <v>-626.8215026474883</v>
+        <v>3983750.664342083</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,28 +2017,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>33.04193696173614</v>
+        <v>1116402.785728222</v>
       </c>
       <c r="G46">
-        <v>900.3980590144123</v>
+        <v>4841733.867871622</v>
       </c>
       <c r="H46">
-        <v>3383.662374807362</v>
+        <v>3986294.774598257</v>
       </c>
       <c r="I46">
-        <v>1192.924127440174</v>
+        <v>1117166.377626264</v>
       </c>
       <c r="J46">
-        <v>-156.4412222608668</v>
+        <v>4841088.351885372</v>
       </c>
       <c r="K46">
-        <v>-980.5168323562231</v>
+        <v>3983403.068241436</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2049,28 +2052,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>32.60442730930037</v>
+        <v>1116402.250089018</v>
       </c>
       <c r="G47">
-        <v>929.4956297271539</v>
+        <v>4841750.380685138</v>
       </c>
       <c r="H47">
-        <v>3397.702454365362</v>
+        <v>3986302.762174595</v>
       </c>
       <c r="I47">
-        <v>1320.956508108006</v>
+        <v>1117252.742612039</v>
       </c>
       <c r="J47">
-        <v>-210.5474303642159</v>
+        <v>4841039.700239379</v>
       </c>
       <c r="K47">
-        <v>-1349.626620495008</v>
+        <v>3983040.323493934</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2084,28 +2087,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>32.18384533039646</v>
+        <v>1116401.735174215</v>
       </c>
       <c r="G48">
-        <v>958.5932004398956</v>
+        <v>4841766.893498654</v>
       </c>
       <c r="H48">
-        <v>3411.378387893503</v>
+        <v>3986310.542583716</v>
       </c>
       <c r="I48">
-        <v>1452.141568362152</v>
+        <v>1117341.234256135</v>
       </c>
       <c r="J48">
-        <v>-264.6536384675645</v>
+        <v>4840991.048593387</v>
       </c>
       <c r="K48">
-        <v>-1734.150867063841</v>
+        <v>3982662.430099578</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2119,28 +2122,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>31.77912708518677</v>
+        <v>1116401.239681241</v>
       </c>
       <c r="G49">
-        <v>987.6907711526374</v>
+        <v>4841783.406312169</v>
       </c>
       <c r="H49">
-        <v>3424.708587959899</v>
+        <v>3986318.126300759</v>
       </c>
       <c r="I49">
-        <v>1586.556940037016</v>
+        <v>1117431.904925556</v>
       </c>
       <c r="J49">
-        <v>-318.7598465709136</v>
+        <v>4840942.396947394</v>
       </c>
       <c r="K49">
-        <v>-2134.089572062727</v>
+        <v>3982269.388058367</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2154,28 +2157,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>31.38929994135205</v>
+        <v>1116400.762419311</v>
       </c>
       <c r="G50">
-        <v>1016.788341865379</v>
+        <v>4841799.919125685</v>
       </c>
       <c r="H50">
-        <v>3437.710104988283</v>
+        <v>3986325.523025923</v>
       </c>
       <c r="I50">
-        <v>1724.282166579498</v>
+        <v>1117524.808276795</v>
       </c>
       <c r="J50">
-        <v>-372.8660546742627</v>
+        <v>4840893.745301401</v>
       </c>
       <c r="K50">
-        <v>-2549.442735491665</v>
+        <v>3981861.197370301</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2189,28 +2192,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>31.01347274194084</v>
+        <v>1116400.302297389</v>
       </c>
       <c r="G51">
-        <v>1045.885912578121</v>
+        <v>4841816.431939201</v>
       </c>
       <c r="H51">
-        <v>3450.398758390998</v>
+        <v>3986332.741759069</v>
       </c>
       <c r="I51">
-        <v>1865.398750120703</v>
+        <v>1117619.99928759</v>
       </c>
       <c r="J51">
-        <v>-426.9722627776118</v>
+        <v>4840845.093655408</v>
       </c>
       <c r="K51">
-        <v>-2980.210357350654</v>
+        <v>3981437.858035381</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2224,28 +2227,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>30.65082723679824</v>
+        <v>1116399.8583137</v>
       </c>
       <c r="G52">
-        <v>1074.983483290863</v>
+        <v>4841832.944752716</v>
       </c>
       <c r="H52">
-        <v>3462.789252291998</v>
+        <v>3986339.790865557</v>
       </c>
       <c r="I52">
-        <v>2009.990199706735</v>
+        <v>1117717.534289451</v>
       </c>
       <c r="J52">
-        <v>-481.0784708809609</v>
+        <v>4840796.442009415</v>
       </c>
       <c r="K52">
-        <v>-3426.392437639693</v>
+        <v>3980999.370053607</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2259,28 +2262,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>30.30061059006881</v>
+        <v>1116399.429546552</v>
       </c>
       <c r="G53">
-        <v>1104.081054003604</v>
+        <v>4841849.457566232</v>
       </c>
       <c r="H53">
-        <v>3474.895277963129</v>
+        <v>3986346.678134521</v>
       </c>
       <c r="I53">
-        <v>2158.142080717126</v>
+        <v>1117817.471001002</v>
       </c>
       <c r="J53">
-        <v>-535.1846789843095</v>
+        <v>4840747.790363424</v>
       </c>
       <c r="K53">
-        <v>-3887.988976358779</v>
+        <v>3980545.733424977</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2294,28 +2297,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>29.96212880765413</v>
+        <v>1116399.015146294</v>
       </c>
       <c r="G54">
-        <v>1133.178624716346</v>
+        <v>4841865.970379748</v>
       </c>
       <c r="H54">
-        <v>3486.729604763281</v>
+        <v>3986353.41083061</v>
       </c>
       <c r="I54">
-        <v>2309.942065500169</v>
+        <v>1117919.868562135</v>
       </c>
       <c r="J54">
-        <v>-589.2908870876586</v>
+        <v>4840699.13871743</v>
       </c>
       <c r="K54">
-        <v>-4364.99997350792</v>
+        <v>3980076.948149494</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,28 +2332,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G55">
-        <v>-37.88836506195668</v>
+        <v>4841115.803722681</v>
       </c>
       <c r="H55">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I55">
-        <v>-2210.229796429841</v>
+        <v>1114859.127393443</v>
       </c>
       <c r="J55">
-        <v>2085.451604903236</v>
+        <v>4843221.974217134</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984364.070266129</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,28 +2367,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G56">
-        <v>-37.88836506195668</v>
+        <v>4841115.803722681</v>
       </c>
       <c r="H56">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I56">
-        <v>-2166.593974986959</v>
+        <v>1114888.74133067</v>
       </c>
       <c r="J56">
-        <v>2034.721338520043</v>
+        <v>4843173.322641961</v>
       </c>
       <c r="K56">
-        <v>271.9202712485323</v>
+        <v>3984667.865781493</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,28 +2402,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G57">
-        <v>-37.88836506195668</v>
+        <v>4841115.803722681</v>
       </c>
       <c r="H57">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I57">
-        <v>-2121.883661585266</v>
+        <v>1114919.084483858</v>
       </c>
       <c r="J57">
-        <v>1983.991072136851</v>
+        <v>4843124.671066788</v>
       </c>
       <c r="K57">
-        <v>530.2813513348364</v>
+        <v>3984956.512659912</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,28 +2437,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G58">
-        <v>-37.88836506195668</v>
+        <v>4841115.803722681</v>
       </c>
       <c r="H58">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I58">
-        <v>-2076.072397848789</v>
+        <v>1114950.174809278</v>
       </c>
       <c r="J58">
-        <v>1933.260805753658</v>
+        <v>4843076.019491616</v>
       </c>
       <c r="K58">
-        <v>775.083240258914</v>
+        <v>3985230.010901387</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,28 +2472,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G59">
-        <v>-37.88836506195668</v>
+        <v>4841115.803722681</v>
       </c>
       <c r="H59">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I59">
-        <v>-2029.133073888393</v>
+        <v>1114982.030705358</v>
       </c>
       <c r="J59">
-        <v>1882.530539370465</v>
+        <v>4843027.367916443</v>
       </c>
       <c r="K59">
-        <v>1006.325938020764</v>
+        <v>3985488.360505917</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,28 +2507,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G60">
-        <v>-37.88836506195668</v>
+        <v>4841115.803722681</v>
       </c>
       <c r="H60">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I60">
-        <v>-1981.037912258857</v>
+        <v>1115014.671023573</v>
       </c>
       <c r="J60">
-        <v>1831.800272987273</v>
+        <v>4842978.716341271</v>
       </c>
       <c r="K60">
-        <v>1224.009444620387</v>
+        <v>3985731.561473502</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,28 +2542,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G61">
-        <v>-37.88836506195668</v>
+        <v>4841115.803722681</v>
       </c>
       <c r="H61">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I61">
-        <v>-1931.758451520931</v>
+        <v>1115048.115079595</v>
       </c>
       <c r="J61">
-        <v>1781.07000660408</v>
+        <v>4842930.064766099</v>
       </c>
       <c r="K61">
-        <v>1428.133760057783</v>
+        <v>3985959.613804142</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,28 +2577,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G62">
-        <v>-37.88836506195668</v>
+        <v>4841115.803722681</v>
       </c>
       <c r="H62">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I62">
-        <v>-1881.265529398607</v>
+        <v>1115082.382664728</v>
       </c>
       <c r="J62">
-        <v>1730.339740220887</v>
+        <v>4842881.413190926</v>
       </c>
       <c r="K62">
-        <v>1618.698884332952</v>
+        <v>3986172.517497838</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,28 +2612,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>230.3847733190173</v>
+        <v>1116578.444574813</v>
       </c>
       <c r="G63">
-        <v>-31.63192950291478</v>
+        <v>4841132.316512014</v>
       </c>
       <c r="H63">
-        <v>675.1408429247927</v>
+        <v>3985218.632184031</v>
       </c>
       <c r="I63">
-        <v>-1829.529265521657</v>
+        <v>1115117.49405762</v>
       </c>
       <c r="J63">
-        <v>1679.609473837694</v>
+        <v>4842832.761615754</v>
       </c>
       <c r="K63">
-        <v>1795.704817445893</v>
+        <v>3986370.272554589</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,28 +2647,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>178.8054599673408</v>
+        <v>1116529.764013628</v>
       </c>
       <c r="G64">
-        <v>-25.37549394387288</v>
+        <v>4841148.829301345</v>
       </c>
       <c r="H64">
-        <v>831.7689754229289</v>
+        <v>3985417.886106015</v>
       </c>
       <c r="I64">
-        <v>-1776.519043743227</v>
+        <v>1115153.47003626</v>
       </c>
       <c r="J64">
-        <v>1628.879207454502</v>
+        <v>4842784.110040582</v>
       </c>
       <c r="K64">
-        <v>1959.151559396606</v>
+        <v>3986552.878974396</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,28 +2682,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>148.5052008709042</v>
+        <v>1116501.166626011</v>
       </c>
       <c r="G65">
-        <v>-19.11905838483099</v>
+        <v>4841165.342090677</v>
       </c>
       <c r="H65">
-        <v>925.0647014056179</v>
+        <v>3985536.57193218</v>
       </c>
       <c r="I65">
-        <v>-1722.203494022013</v>
+        <v>1115190.331890277</v>
       </c>
       <c r="J65">
-        <v>1578.148941071309</v>
+        <v>4842735.458465409</v>
       </c>
       <c r="K65">
-        <v>2109.039110185094</v>
+        <v>3986720.336757258</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,28 +2717,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>129.377454389756</v>
+        <v>1116483.113856938</v>
       </c>
       <c r="G66">
-        <v>-12.86262282578909</v>
+        <v>4841181.85488001</v>
       </c>
       <c r="H66">
-        <v>991.7368511483857</v>
+        <v>3985621.388670472</v>
       </c>
       <c r="I66">
-        <v>-1666.550473858302</v>
+        <v>1115228.101433537</v>
       </c>
       <c r="J66">
-        <v>1527.418674688116</v>
+        <v>4842686.806890236</v>
       </c>
       <c r="K66">
-        <v>2245.367469811354</v>
+        <v>3986872.645903174</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,28 +2752,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>116.0378416378845</v>
+        <v>1116470.523929067</v>
       </c>
       <c r="G67">
-        <v>-6.606187266747193</v>
+        <v>4841198.367669341</v>
       </c>
       <c r="H67">
-        <v>1043.654418433449</v>
+        <v>3985687.435419139</v>
       </c>
       <c r="I67">
-        <v>-1609.527049272901</v>
+        <v>1115266.801017051</v>
       </c>
       <c r="J67">
-        <v>1476.688408304923</v>
+        <v>4842638.155315064</v>
       </c>
       <c r="K67">
-        <v>2368.136638275387</v>
+        <v>3987009.806412146</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,28 +2787,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>106.0860910491655</v>
+        <v>1116461.131465849</v>
       </c>
       <c r="G68">
-        <v>-0.3497517077053003</v>
+        <v>4841214.880458673</v>
       </c>
       <c r="H68">
-        <v>1086.17893313351</v>
+        <v>3985741.532829351</v>
       </c>
       <c r="I68">
-        <v>-1551.099475317673</v>
+        <v>1115306.453542207</v>
       </c>
       <c r="J68">
-        <v>1425.958141921731</v>
+        <v>4842589.503739892</v>
       </c>
       <c r="K68">
-        <v>2477.346615577192</v>
+        <v>3987131.818284174</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,28 +2822,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>98.30521180955611</v>
+        <v>1116453.787871232</v>
       </c>
       <c r="G69">
-        <v>5.906683851336597</v>
+        <v>4841231.393248005</v>
       </c>
       <c r="H69">
-        <v>1122.194092945339</v>
+        <v>3985787.349386881</v>
       </c>
       <c r="I69">
-        <v>-1491.23317610618</v>
+        <v>1115347.082474316</v>
       </c>
       <c r="J69">
-        <v>1375.227875538538</v>
+        <v>4842540.852164718</v>
       </c>
       <c r="K69">
-        <v>2572.99740171677</v>
+        <v>3987238.681519257</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,28 +2857,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>92.0099139603177</v>
+        <v>1116447.846368482</v>
       </c>
       <c r="G70">
-        <v>12.1631194103785</v>
+        <v>4841247.906037337</v>
       </c>
       <c r="H70">
-        <v>1153.430684743965</v>
+        <v>3985827.086906099</v>
       </c>
       <c r="I70">
-        <v>-1429.892724352589</v>
+        <v>1115388.7118565</v>
       </c>
       <c r="J70">
-        <v>1324.497609155345</v>
+        <v>4842492.200589546</v>
       </c>
       <c r="K70">
-        <v>2655.08899669412</v>
+        <v>3987330.396117395</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,28 +2892,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>86.78257360516291</v>
+        <v>1116442.912804123</v>
       </c>
       <c r="G71">
-        <v>18.41955496942039</v>
+        <v>4841264.418826669</v>
       </c>
       <c r="H71">
-        <v>1181.009504325865</v>
+        <v>3985862.171203394</v>
       </c>
       <c r="I71">
-        <v>-1367.041820406747</v>
+        <v>1115431.366323921</v>
       </c>
       <c r="J71">
-        <v>1273.767342772152</v>
+        <v>4842443.549014374</v>
       </c>
       <c r="K71">
-        <v>2723.621400509244</v>
+        <v>3987406.962078589</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,28 +2927,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>82.35279596266209</v>
+        <v>1116438.731979533</v>
       </c>
       <c r="G72">
-        <v>24.67599052846229</v>
+        <v>4841280.931616001</v>
       </c>
       <c r="H72">
-        <v>1205.698097506608</v>
+        <v>3985893.578709447</v>
       </c>
       <c r="I72">
-        <v>-1302.64327077301</v>
+        <v>1115475.071118362</v>
       </c>
       <c r="J72">
-        <v>1223.03707638896</v>
+        <v>4842394.897439202</v>
       </c>
       <c r="K72">
-        <v>2778.594613162141</v>
+        <v>3987468.379402838</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,28 +2962,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>78.53697469437704</v>
+        <v>1116435.130607032</v>
       </c>
       <c r="G73">
-        <v>30.93242608750418</v>
+        <v>4841297.444405333</v>
       </c>
       <c r="H73">
-        <v>1228.045195439728</v>
+        <v>3985922.007490644</v>
       </c>
       <c r="I73">
-        <v>-1236.658966100121</v>
+        <v>1115519.852103158</v>
       </c>
       <c r="J73">
-        <v>1172.306810005767</v>
+        <v>4842346.245864029</v>
       </c>
       <c r="K73">
-        <v>2820.00863465281</v>
+        <v>3987514.648090142</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,28 +2997,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>75.20556555706112</v>
+        <v>1116431.98642275</v>
       </c>
       <c r="G74">
-        <v>37.18886164654607</v>
+        <v>4841313.957194665</v>
       </c>
       <c r="H74">
-        <v>1248.456717761965</v>
+        <v>3985947.973936209</v>
       </c>
       <c r="I74">
-        <v>-1169.04985862911</v>
+        <v>1115565.735778506</v>
       </c>
       <c r="J74">
-        <v>1121.576543622574</v>
+        <v>4842297.594288857</v>
       </c>
       <c r="K74">
-        <v>2847.863464981252</v>
+        <v>3987545.768140501</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,28 +3032,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>72.26424615564167</v>
+        <v>1116429.2104052</v>
       </c>
       <c r="G75">
-        <v>43.44529720558798</v>
+        <v>4841330.469983997</v>
       </c>
       <c r="H75">
-        <v>1267.241397648728</v>
+        <v>3985971.870799952</v>
       </c>
       <c r="I75">
-        <v>-1099.775939085863</v>
+        <v>1115612.749297148</v>
       </c>
       <c r="J75">
-        <v>1070.846277239382</v>
+        <v>4842248.942713684</v>
       </c>
       <c r="K75">
-        <v>2862.159104147467</v>
+        <v>3987561.739553916</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,28 +3067,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>69.64251015551781</v>
+        <v>1116426.736010496</v>
       </c>
       <c r="G76">
-        <v>49.70173276462987</v>
+        <v>4841346.982773329</v>
       </c>
       <c r="H76">
-        <v>1284.639526661478</v>
+        <v>3985994.003767929</v>
       </c>
       <c r="I76">
-        <v>-1028.796213004701</v>
+        <v>1115660.920480435</v>
       </c>
       <c r="J76">
-        <v>1020.116010856189</v>
+        <v>4842200.291138512</v>
       </c>
       <c r="K76">
-        <v>2862.895552151454</v>
+        <v>3987562.562330386</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,28 +3102,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>67.28646631126355</v>
+        <v>1116424.512376077</v>
       </c>
       <c r="G77">
-        <v>55.95816832367177</v>
+        <v>4841363.495562661</v>
       </c>
       <c r="H77">
-        <v>1300.841800102475</v>
+        <v>3986014.615432492</v>
       </c>
       <c r="I77">
-        <v>-956.0686764689412</v>
+        <v>1115710.277834794</v>
       </c>
       <c r="J77">
-        <v>969.3857444729958</v>
+        <v>4842151.639563339</v>
       </c>
       <c r="K77">
-        <v>2850.072808993215</v>
+        <v>3987548.236469911</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,28 +3137,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>65.1541278052853</v>
+        <v>1116422.499874778</v>
       </c>
       <c r="G78">
-        <v>62.21460388271367</v>
+        <v>4841380.008351993</v>
       </c>
       <c r="H78">
-        <v>1316.002091714801</v>
+        <v>3986033.901543576</v>
       </c>
       <c r="I78">
-        <v>-881.5502912540945</v>
+        <v>1115760.850568596</v>
       </c>
       <c r="J78">
-        <v>918.6554780898033</v>
+        <v>4842102.987988167</v>
       </c>
       <c r="K78">
-        <v>2823.690874672748</v>
+        <v>3987518.761972492</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,28 +3172,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>63.21223544216389</v>
+        <v>1116420.667116568</v>
       </c>
       <c r="G79">
-        <v>68.47103944175556</v>
+        <v>4841396.521141325</v>
       </c>
       <c r="H79">
-        <v>1330.246363006479</v>
+        <v>3986052.022342664</v>
       </c>
       <c r="I79">
-        <v>-805.1969593589899</v>
+        <v>1115812.668609441</v>
       </c>
       <c r="J79">
-        <v>867.9252117066104</v>
+        <v>4842054.336412994</v>
       </c>
       <c r="K79">
-        <v>2783.749749190054</v>
+        <v>3987474.138838128</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,28 +3207,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>61.43405801627652</v>
+        <v>1116418.988872533</v>
       </c>
       <c r="G80">
-        <v>74.72747500079745</v>
+        <v>4841413.033930657</v>
       </c>
       <c r="H80">
-        <v>1343.679030971183</v>
+        <v>3986069.110663466</v>
       </c>
       <c r="I80">
-        <v>-726.9634969097458</v>
+        <v>1115865.762621871</v>
       </c>
       <c r="J80">
-        <v>817.1949453234176</v>
+        <v>4842005.684837821</v>
       </c>
       <c r="K80">
-        <v>2730.249432545133</v>
+        <v>3987414.367066819</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,28 +3242,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>59.79783374963827</v>
+        <v>1116417.444603904</v>
       </c>
       <c r="G81">
-        <v>80.98391055983936</v>
+        <v>4841429.54671999</v>
       </c>
       <c r="H81">
-        <v>1356.387617507219</v>
+        <v>3986085.277846652</v>
       </c>
       <c r="I81">
-        <v>-646.8036074211551</v>
+        <v>1115920.164025512</v>
       </c>
       <c r="J81">
-        <v>766.464678940225</v>
+        <v>4841957.033262649</v>
       </c>
       <c r="K81">
-        <v>2663.189924737985</v>
+        <v>3987339.446658566</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,28 +3277,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>58.28564327531311</v>
+        <v>1116416.01739838</v>
       </c>
       <c r="G82">
-        <v>87.24034611888125</v>
+        <v>4841446.059509322</v>
       </c>
       <c r="H82">
-        <v>1368.446208569312</v>
+        <v>3986100.618140406</v>
       </c>
       <c r="I82">
-        <v>-564.6698543996531</v>
+        <v>1115975.905013668</v>
       </c>
       <c r="J82">
-        <v>715.7344125570322</v>
+        <v>4841908.381687477</v>
       </c>
       <c r="K82">
-        <v>2582.571225768609</v>
+        <v>3987249.377613368</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,28 +3312,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>56.88257981773559</v>
+        <v>1116414.693186946</v>
       </c>
       <c r="G83">
-        <v>93.49678167792314</v>
+        <v>4841462.572298653</v>
       </c>
       <c r="H83">
-        <v>1379.918070966572</v>
+        <v>3986115.212029375</v>
       </c>
       <c r="I83">
-        <v>-480.513633271664</v>
+        <v>1116033.018572377</v>
       </c>
       <c r="J83">
-        <v>665.0041461738393</v>
+        <v>4841859.730112305</v>
       </c>
       <c r="K83">
-        <v>2488.393335637006</v>
+        <v>3987144.159931225</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,28 +3347,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>55.5761282444592</v>
+        <v>1116413.460157819</v>
       </c>
       <c r="G84">
-        <v>99.75321723696504</v>
+        <v>4841479.085087986</v>
       </c>
       <c r="H84">
-        <v>1390.857661567562</v>
+        <v>3986129.128790671</v>
       </c>
       <c r="I84">
-        <v>-394.2851426207023</v>
+        <v>1116091.538499926</v>
       </c>
       <c r="J84">
-        <v>614.2738797906468</v>
+        <v>4841811.078537132</v>
       </c>
       <c r="K84">
-        <v>2380.656254343176</v>
+        <v>3987023.793612137</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,28 +3382,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>54.35569361023665</v>
+        <v>1116412.308311487</v>
       </c>
       <c r="G85">
-        <v>106.0096527960069</v>
+        <v>4841495.597877318</v>
       </c>
       <c r="H85">
-        <v>1401.31219071818</v>
+        <v>3986142.428482766</v>
       </c>
       <c r="I85">
-        <v>-305.9333547162175</v>
+        <v>1116151.499426853</v>
       </c>
       <c r="J85">
-        <v>563.5436134074539</v>
+        <v>4841762.426961959</v>
       </c>
       <c r="K85">
-        <v>2259.359981887118</v>
+        <v>3986888.278656105</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,28 +3417,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>53.2122384654546</v>
+        <v>1116411.229118405</v>
       </c>
       <c r="G86">
-        <v>112.2660883550488</v>
+        <v>4841512.110666649</v>
       </c>
       <c r="H86">
-        <v>1411.322853535821</v>
+        <v>3986155.163511884</v>
       </c>
       <c r="I86">
-        <v>-215.4059853167387</v>
+        <v>1116212.936836443</v>
       </c>
       <c r="J86">
-        <v>512.8133470242614</v>
+        <v>4841713.775386787</v>
       </c>
       <c r="K86">
-        <v>2124.504518268835</v>
+        <v>3986737.615063128</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,28 +3452,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>52.13800048277635</v>
+        <v>1116410.215252487</v>
       </c>
       <c r="G87">
-        <v>118.5225239140907</v>
+        <v>4841528.623455982</v>
       </c>
       <c r="H87">
-        <v>1420.925810305841</v>
+        <v>3986167.379879203</v>
       </c>
       <c r="I87">
-        <v>-122.6494627294503</v>
+        <v>1116275.887085723</v>
       </c>
       <c r="J87">
-        <v>462.0830806410685</v>
+        <v>4841665.123811615</v>
       </c>
       <c r="K87">
-        <v>1976.089863488322</v>
+        <v>3986571.802833206</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,28 +3487,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>51.12627020435198</v>
+        <v>1116409.260381348</v>
       </c>
       <c r="G88">
-        <v>124.7789594731326</v>
+        <v>4841545.136245313</v>
       </c>
       <c r="H88">
-        <v>1430.152974935258</v>
+        <v>3986179.118183886</v>
       </c>
       <c r="I88">
-        <v>-27.60889610788635</v>
+        <v>1116340.387426978</v>
       </c>
       <c r="J88">
-        <v>411.3528142578757</v>
+        <v>4841616.472236441</v>
       </c>
       <c r="K88">
-        <v>1814.116017545583</v>
+        <v>3986390.84196634</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,28 +3522,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>50.17121435176362</v>
+        <v>1116408.358999537</v>
       </c>
       <c r="G89">
-        <v>131.0353950321745</v>
+        <v>4841561.649034645</v>
       </c>
       <c r="H89">
-        <v>1439.032654864061</v>
+        <v>3986190.414437143</v>
       </c>
       <c r="I89">
-        <v>69.77195703101582</v>
+        <v>1116406.476029797</v>
       </c>
       <c r="J89">
-        <v>360.6225478746831</v>
+        <v>4841567.820661269</v>
       </c>
       <c r="K89">
-        <v>1638.582980440618</v>
+        <v>3986194.73246253</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,28 +3557,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>49.26773406066969</v>
+        <v>1116407.506294746</v>
       </c>
       <c r="G90">
-        <v>137.2918305912164</v>
+        <v>4841578.161823978</v>
       </c>
       <c r="H90">
-        <v>1447.590074800196</v>
+        <v>3986201.300728495</v>
       </c>
       <c r="I90">
-        <v>169.5507240897211</v>
+        <v>1116474.19200366</v>
       </c>
       <c r="J90">
-        <v>309.8922814914902</v>
+        <v>4841519.169086097</v>
       </c>
       <c r="K90">
-        <v>1449.490752173424</v>
+        <v>3985983.474321774</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,28 +3592,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>48.41135016762238</v>
+        <v>1116406.698039541</v>
       </c>
       <c r="G91">
-        <v>143.5482661502583</v>
+        <v>4841594.674613309</v>
       </c>
       <c r="H91">
-        <v>1455.847808704196</v>
+        <v>3986211.805775327</v>
       </c>
       <c r="I91">
-        <v>271.7864514924655</v>
+        <v>1116543.575421082</v>
       </c>
       <c r="J91">
-        <v>259.1620151082976</v>
+        <v>4841470.517510924</v>
       </c>
       <c r="K91">
-        <v>1246.839332744004</v>
+        <v>3985757.067544073</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,28 +3627,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>47.598109654828</v>
+        <v>1116405.930503062</v>
       </c>
       <c r="G92">
-        <v>149.8047017093002</v>
+        <v>4841611.187402641</v>
       </c>
       <c r="H92">
-        <v>1463.8261386602</v>
+        <v>3986221.955379419</v>
       </c>
       <c r="I92">
-        <v>376.5396396273568</v>
+        <v>1116614.667341327</v>
       </c>
       <c r="J92">
-        <v>208.4317487251048</v>
+        <v>4841421.865935751</v>
       </c>
       <c r="K92">
-        <v>1030.628722152356</v>
+        <v>3985515.512129428</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,28 +3662,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>46.8245087919404</v>
+        <v>1116405.200378489</v>
       </c>
       <c r="G93">
-        <v>156.0611372683421</v>
+        <v>4841627.700191974</v>
       </c>
       <c r="H93">
-        <v>1471.543354997875</v>
+        <v>3986231.77280875</v>
       </c>
       <c r="I93">
-        <v>483.8722786489047</v>
+        <v>1116687.509834704</v>
       </c>
       <c r="J93">
-        <v>157.7014823419119</v>
+        <v>4841373.21436058</v>
       </c>
       <c r="K93">
-        <v>800.8589203984808</v>
+        <v>3985258.808077838</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,28 +3697,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>46.08742956479846</v>
+        <v>1116404.50472304</v>
       </c>
       <c r="G94">
-        <v>162.317572827384</v>
+        <v>4841644.212981305</v>
       </c>
       <c r="H94">
-        <v>1479.016008841334</v>
+        <v>3986241.279118774</v>
       </c>
       <c r="I94">
-        <v>593.8478851621394</v>
+        <v>1116762.146007466</v>
       </c>
       <c r="J94">
-        <v>106.9712159587194</v>
+        <v>4841324.562785408</v>
       </c>
       <c r="K94">
-        <v>557.529927482379</v>
+        <v>3984986.955389304</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,28 +3732,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>45.38408675992641</v>
+        <v>1116403.840908029</v>
       </c>
       <c r="G95">
-        <v>168.5740083864259</v>
+        <v>4841660.725770637</v>
       </c>
       <c r="H95">
-        <v>1486.25912585676</v>
+        <v>3986250.493424337</v>
       </c>
       <c r="I95">
-        <v>706.531539810062</v>
+        <v>1116838.620027319</v>
       </c>
       <c r="J95">
-        <v>56.24094957552652</v>
+        <v>4841275.911210235</v>
       </c>
       <c r="K95">
-        <v>300.6417434040492</v>
+        <v>3984699.954063824</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,28 +3767,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>44.71198365689305</v>
+        <v>1116403.206577052</v>
       </c>
       <c r="G96">
-        <v>174.8304439454678</v>
+        <v>4841677.23855997</v>
       </c>
       <c r="H96">
-        <v>1493.286388139646</v>
+        <v>3986259.43313107</v>
       </c>
       <c r="I96">
-        <v>821.9899257866274</v>
+        <v>1116916.977149556</v>
       </c>
       <c r="J96">
-        <v>5.510683192333686</v>
+        <v>4841227.259635062</v>
       </c>
       <c r="K96">
-        <v>30.19436816349243</v>
+        <v>3984397.804101401</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,28 +3802,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>44.06887472161091</v>
+        <v>1116402.599610774</v>
       </c>
       <c r="G97">
-        <v>181.0868795045097</v>
+        <v>4841693.751349301</v>
       </c>
       <c r="H97">
-        <v>1500.110289775839</v>
+        <v>3986268.114133279</v>
       </c>
       <c r="I97">
-        <v>940.2913682980973</v>
+        <v>1116997.263743841</v>
       </c>
       <c r="J97">
-        <v>-45.21958319085891</v>
+        <v>4841178.60805989</v>
       </c>
       <c r="K97">
-        <v>-253.8121982392908</v>
+        <v>3984080.505502032</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,28 +3837,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>43.45273403004691</v>
+        <v>1116402.018097126</v>
       </c>
       <c r="G98">
-        <v>187.3433150635516</v>
+        <v>4841710.264138633</v>
       </c>
       <c r="H98">
-        <v>1506.742270520568</v>
+        <v>3986276.550984009</v>
       </c>
       <c r="I98">
-        <v>1061.505874996081</v>
+        <v>1117079.527321648</v>
       </c>
       <c r="J98">
-        <v>-95.94984957405174</v>
+        <v>4841129.956484717</v>
       </c>
       <c r="K98">
-        <v>-551.3779558043019</v>
+        <v>3983748.058265719</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,28 +3872,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>42.86172841057893</v>
+        <v>1116401.460305962</v>
       </c>
       <c r="G99">
-        <v>193.5997506225935</v>
+        <v>4841726.776927966</v>
       </c>
       <c r="H99">
-        <v>1513.192831188254</v>
+        <v>3986284.757041832</v>
       </c>
       <c r="I99">
-        <v>1185.705177406203</v>
+        <v>1117163.816564377</v>
       </c>
       <c r="J99">
-        <v>-146.6801159572446</v>
+        <v>4841081.304909544</v>
       </c>
       <c r="K99">
-        <v>-862.502904531541</v>
+        <v>3983400.462392461</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,28 +3907,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>42.29419449386501</v>
+        <v>1116400.924667394</v>
       </c>
       <c r="G100">
-        <v>199.8561861816354</v>
+        <v>4841743.289717298</v>
       </c>
       <c r="H100">
-        <v>1519.471633675954</v>
+        <v>3986292.744598097</v>
       </c>
       <c r="I100">
-        <v>1312.96277337691</v>
+        <v>1117250.181352164</v>
       </c>
       <c r="J100">
-        <v>-197.4103823404374</v>
+        <v>4841032.653334372</v>
       </c>
       <c r="K100">
-        <v>-1187.187044421007</v>
+        <v>3983037.717882259</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,28 +3942,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>41.74861901579788</v>
+        <v>1116400.409753203</v>
       </c>
       <c r="G101">
-        <v>206.1126217406773</v>
+        <v>4841759.80250663</v>
       </c>
       <c r="H101">
-        <v>1525.587588012494</v>
+        <v>3986300.524987665</v>
       </c>
       <c r="I101">
-        <v>1443.353970573554</v>
+        <v>1117338.672793396</v>
       </c>
       <c r="J101">
-        <v>-248.1406487236298</v>
+        <v>4840984.001759199</v>
       </c>
       <c r="K101">
-        <v>-1525.430375472698</v>
+        <v>3982659.824735111</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,28 +3977,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>41.22362184238542</v>
+        <v>1116399.914260817</v>
       </c>
       <c r="G102">
-        <v>212.3690572997192</v>
+        <v>4841776.315295962</v>
       </c>
       <c r="H102">
-        <v>1531.548928401818</v>
+        <v>3986308.108685651</v>
       </c>
       <c r="I102">
-        <v>1576.955931043464</v>
+        <v>1117429.343254957</v>
       </c>
       <c r="J102">
-        <v>-298.8709151068226</v>
+        <v>4840935.350184027</v>
       </c>
       <c r="K102">
-        <v>-1877.232897686617</v>
+        <v>3982266.782951019</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,28 +4012,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>40.71794128299616</v>
+        <v>1116399.436999454</v>
       </c>
       <c r="G103">
-        <v>218.6254928587611</v>
+        <v>4841792.828085294</v>
       </c>
       <c r="H103">
-        <v>1537.363279889248</v>
+        <v>3986315.505392227</v>
       </c>
       <c r="I103">
-        <v>1713.847716878396</v>
+        <v>1117522.246393219</v>
       </c>
       <c r="J103">
-        <v>-349.6011814900154</v>
+        <v>4840886.698608855</v>
       </c>
       <c r="K103">
-        <v>-2242.594611062765</v>
+        <v>3981858.592529982</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,28 +4047,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>40.23042133617447</v>
+        <v>1116398.976878078</v>
       </c>
       <c r="G104">
-        <v>224.881928417803</v>
+        <v>4841809.340874626</v>
       </c>
       <c r="H104">
-        <v>1543.037717004893</v>
+        <v>3986322.724107232</v>
       </c>
       <c r="I104">
-        <v>1854.110337001379</v>
+        <v>1117617.437185792</v>
       </c>
       <c r="J104">
-        <v>-400.3314478732083</v>
+        <v>4840838.047033682</v>
       </c>
       <c r="K104">
-        <v>-2621.51551560114</v>
+        <v>3981435.253472001</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,28 +4082,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>39.76000057456054</v>
+        <v>1116398.532894915</v>
       </c>
       <c r="G105">
-        <v>231.1383639768449</v>
+        <v>4841825.853663958</v>
       </c>
       <c r="H105">
-        <v>1548.578815515629</v>
+        <v>3986329.773196006</v>
       </c>
       <c r="I105">
-        <v>1997.826795105647</v>
+        <v>1117714.971964057</v>
       </c>
       <c r="J105">
-        <v>-451.0617142564011</v>
+        <v>4840789.39545851</v>
       </c>
       <c r="K105">
-        <v>-3013.995611301742</v>
+        <v>3980996.765777075</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,28 +4117,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>39.30570242568495</v>
+        <v>1116398.104128276</v>
       </c>
       <c r="G106">
-        <v>237.3947995358868</v>
+        <v>4841842.36645329</v>
       </c>
       <c r="H106">
-        <v>1553.992698235171</v>
+        <v>3986336.660447662</v>
       </c>
       <c r="I106">
-        <v>2145.082138774013</v>
+        <v>1117814.908446508</v>
       </c>
       <c r="J106">
-        <v>-501.7919806395935</v>
+        <v>4840740.743883338</v>
       </c>
       <c r="K106">
-        <v>-3420.034898164568</v>
+        <v>3980543.129445205</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,28 +4152,1883 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>38.86662664612071</v>
+        <v>1116397.689728511</v>
       </c>
       <c r="G107">
-        <v>243.6512350949286</v>
+        <v>4841858.879242622</v>
       </c>
       <c r="H107">
-        <v>1559.285075692585</v>
+        <v>3986343.393126832</v>
       </c>
       <c r="I107">
-        <v>2295.963509807782</v>
+        <v>1117917.305772898</v>
       </c>
       <c r="J107">
-        <v>-552.5222470227864</v>
+        <v>4840692.092308165</v>
       </c>
       <c r="K107">
-        <v>-3839.633376189624</v>
+        <v>3980074.344476389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>55</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G108">
+        <v>4841119.207571981</v>
+      </c>
+      <c r="H108">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I108">
+        <v>1114862.390538439</v>
+      </c>
+      <c r="J108">
+        <v>4843223.38432948</v>
+      </c>
+      <c r="K108">
+        <v>3984368.068016677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>55</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G109">
+        <v>4841119.207571981</v>
+      </c>
+      <c r="H109">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I109">
+        <v>1114892.004562345</v>
+      </c>
+      <c r="J109">
+        <v>4843174.732740143</v>
+      </c>
+      <c r="K109">
+        <v>3984671.863836857</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>55</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G110">
+        <v>4841119.207571981</v>
+      </c>
+      <c r="H110">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I110">
+        <v>1114922.347804346</v>
+      </c>
+      <c r="J110">
+        <v>4843126.081150805</v>
+      </c>
+      <c r="K110">
+        <v>3984960.511004893</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>55</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G111">
+        <v>4841119.207571981</v>
+      </c>
+      <c r="H111">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I111">
+        <v>1114953.438220766</v>
+      </c>
+      <c r="J111">
+        <v>4843077.429561468</v>
+      </c>
+      <c r="K111">
+        <v>3985234.009520784</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>55</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G112">
+        <v>4841119.207571981</v>
+      </c>
+      <c r="H112">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I112">
+        <v>1114985.294210087</v>
+      </c>
+      <c r="J112">
+        <v>4843028.77797213</v>
+      </c>
+      <c r="K112">
+        <v>3985492.359384532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>55</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G113">
+        <v>4841119.207571981</v>
+      </c>
+      <c r="H113">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I113">
+        <v>1115017.934623838</v>
+      </c>
+      <c r="J113">
+        <v>4842980.126382793</v>
+      </c>
+      <c r="K113">
+        <v>3985735.560596135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G114">
+        <v>4841119.207571981</v>
+      </c>
+      <c r="H114">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I114">
+        <v>1115051.37877775</v>
+      </c>
+      <c r="J114">
+        <v>4842931.474793455</v>
+      </c>
+      <c r="K114">
+        <v>3985963.613155594</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>55</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G115">
+        <v>4841119.207571981</v>
+      </c>
+      <c r="H115">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I115">
+        <v>1115085.646463183</v>
+      </c>
+      <c r="J115">
+        <v>4842882.823204118</v>
+      </c>
+      <c r="K115">
+        <v>3986176.517062909</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>55</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116579.096874191</v>
+      </c>
+      <c r="G116">
+        <v>4841135.720372924</v>
+      </c>
+      <c r="H116">
+        <v>3985225.995389273</v>
+      </c>
+      <c r="I116">
+        <v>1115120.757958844</v>
+      </c>
+      <c r="J116">
+        <v>4842834.171614781</v>
+      </c>
+      <c r="K116">
+        <v>3986374.272318079</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>55</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116530.416284567</v>
+      </c>
+      <c r="G117">
+        <v>4841152.233173866</v>
+      </c>
+      <c r="H117">
+        <v>3985425.249679403</v>
+      </c>
+      <c r="I117">
+        <v>1115156.734042785</v>
+      </c>
+      <c r="J117">
+        <v>4842785.520025443</v>
+      </c>
+      <c r="K117">
+        <v>3986556.878921106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>55</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116501.818880244</v>
+      </c>
+      <c r="G118">
+        <v>4841168.745974808</v>
+      </c>
+      <c r="H118">
+        <v>3985543.935724856</v>
+      </c>
+      <c r="I118">
+        <v>1115193.596004694</v>
+      </c>
+      <c r="J118">
+        <v>4842736.868436106</v>
+      </c>
+      <c r="K118">
+        <v>3986724.336871988</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>55</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116483.766100624</v>
+      </c>
+      <c r="G119">
+        <v>4841185.258775751</v>
+      </c>
+      <c r="H119">
+        <v>3985628.752619858</v>
+      </c>
+      <c r="I119">
+        <v>1115231.365658504</v>
+      </c>
+      <c r="J119">
+        <v>4842688.216846768</v>
+      </c>
+      <c r="K119">
+        <v>3986876.646170726</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>55</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116471.176165398</v>
+      </c>
+      <c r="G120">
+        <v>4841201.771576693</v>
+      </c>
+      <c r="H120">
+        <v>3985694.799490555</v>
+      </c>
+      <c r="I120">
+        <v>1115270.065355291</v>
+      </c>
+      <c r="J120">
+        <v>4842639.565257431</v>
+      </c>
+      <c r="K120">
+        <v>3987013.806817319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>55</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116461.783696693</v>
+      </c>
+      <c r="G121">
+        <v>4841218.284377635</v>
+      </c>
+      <c r="H121">
+        <v>3985748.897000719</v>
+      </c>
+      <c r="I121">
+        <v>1115309.717996508</v>
+      </c>
+      <c r="J121">
+        <v>4842590.913668093</v>
+      </c>
+      <c r="K121">
+        <v>3987135.818811769</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>55</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116454.440097786</v>
+      </c>
+      <c r="G122">
+        <v>4841234.797178578</v>
+      </c>
+      <c r="H122">
+        <v>3985794.713642901</v>
+      </c>
+      <c r="I122">
+        <v>1115350.347047536</v>
+      </c>
+      <c r="J122">
+        <v>4842542.262078756</v>
+      </c>
+      <c r="K122">
+        <v>3987242.682154074</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>55</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116448.498591565</v>
+      </c>
+      <c r="G123">
+        <v>4841251.30997952</v>
+      </c>
+      <c r="H123">
+        <v>3985834.451235539</v>
+      </c>
+      <c r="I123">
+        <v>1115391.976551567</v>
+      </c>
+      <c r="J123">
+        <v>4842493.610489418</v>
+      </c>
+      <c r="K123">
+        <v>3987334.396844235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>55</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116443.565024324</v>
+      </c>
+      <c r="G124">
+        <v>4841267.822780463</v>
+      </c>
+      <c r="H124">
+        <v>3985869.535597657</v>
+      </c>
+      <c r="I124">
+        <v>1115434.631143836</v>
+      </c>
+      <c r="J124">
+        <v>4842444.958900081</v>
+      </c>
+      <c r="K124">
+        <v>3987410.962882251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>55</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116439.384197292</v>
+      </c>
+      <c r="G125">
+        <v>4841284.335581404</v>
+      </c>
+      <c r="H125">
+        <v>3985900.94316174</v>
+      </c>
+      <c r="I125">
+        <v>1115478.336066199</v>
+      </c>
+      <c r="J125">
+        <v>4842396.307310744</v>
+      </c>
+      <c r="K125">
+        <v>3987472.380268124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>55</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116435.782822687</v>
+      </c>
+      <c r="G126">
+        <v>4841300.848382347</v>
+      </c>
+      <c r="H126">
+        <v>3985929.371995462</v>
+      </c>
+      <c r="I126">
+        <v>1115523.117182067</v>
+      </c>
+      <c r="J126">
+        <v>4842347.655721406</v>
+      </c>
+      <c r="K126">
+        <v>3987518.649001853</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>55</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116432.638636568</v>
+      </c>
+      <c r="G127">
+        <v>4841317.36118329</v>
+      </c>
+      <c r="H127">
+        <v>3985955.338489003</v>
+      </c>
+      <c r="I127">
+        <v>1115569.000991715</v>
+      </c>
+      <c r="J127">
+        <v>4842299.004132069</v>
+      </c>
+      <c r="K127">
+        <v>3987549.769083437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>55</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116429.862617396</v>
+      </c>
+      <c r="G128">
+        <v>4841333.873984232</v>
+      </c>
+      <c r="H128">
+        <v>3985979.235396898</v>
+      </c>
+      <c r="I128">
+        <v>1115616.014647964</v>
+      </c>
+      <c r="J128">
+        <v>4842250.352542731</v>
+      </c>
+      <c r="K128">
+        <v>3987565.740512876</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>55</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116427.388221247</v>
+      </c>
+      <c r="G129">
+        <v>4841350.386785175</v>
+      </c>
+      <c r="H129">
+        <v>3986001.36840577</v>
+      </c>
+      <c r="I129">
+        <v>1115664.185972246</v>
+      </c>
+      <c r="J129">
+        <v>4842201.700953394</v>
+      </c>
+      <c r="K129">
+        <v>3987566.563290172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>55</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116425.164585528</v>
+      </c>
+      <c r="G130">
+        <v>4841366.899586117</v>
+      </c>
+      <c r="H130">
+        <v>3986021.980108415</v>
+      </c>
+      <c r="I130">
+        <v>1115713.543471071</v>
+      </c>
+      <c r="J130">
+        <v>4842153.049364056</v>
+      </c>
+      <c r="K130">
+        <v>3987552.237415323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>55</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116423.152083054</v>
+      </c>
+      <c r="G131">
+        <v>4841383.412387059</v>
+      </c>
+      <c r="H131">
+        <v>3986041.266255132</v>
+      </c>
+      <c r="I131">
+        <v>1115764.116352897</v>
+      </c>
+      <c r="J131">
+        <v>4842104.397774719</v>
+      </c>
+      <c r="K131">
+        <v>3987522.76288833</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>55</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116421.319323773</v>
+      </c>
+      <c r="G132">
+        <v>4841399.925188001</v>
+      </c>
+      <c r="H132">
+        <v>3986059.387087701</v>
+      </c>
+      <c r="I132">
+        <v>1115815.934545412</v>
+      </c>
+      <c r="J132">
+        <v>4842055.746185381</v>
+      </c>
+      <c r="K132">
+        <v>3987478.139709193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>55</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116419.641078758</v>
+      </c>
+      <c r="G133">
+        <v>4841416.437988943</v>
+      </c>
+      <c r="H133">
+        <v>3986076.475440076</v>
+      </c>
+      <c r="I133">
+        <v>1115869.028713246</v>
+      </c>
+      <c r="J133">
+        <v>4842007.094596043</v>
+      </c>
+      <c r="K133">
+        <v>3987418.367877912</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>55</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116418.096809226</v>
+      </c>
+      <c r="G134">
+        <v>4841432.950789887</v>
+      </c>
+      <c r="H134">
+        <v>3986092.642653133</v>
+      </c>
+      <c r="I134">
+        <v>1115923.430276117</v>
+      </c>
+      <c r="J134">
+        <v>4841958.443006706</v>
+      </c>
+      <c r="K134">
+        <v>3987343.447394486</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>55</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116416.669602869</v>
+      </c>
+      <c r="G135">
+        <v>4841449.463590829</v>
+      </c>
+      <c r="H135">
+        <v>3986107.98297523</v>
+      </c>
+      <c r="I135">
+        <v>1115979.171427425</v>
+      </c>
+      <c r="J135">
+        <v>4841909.791417369</v>
+      </c>
+      <c r="K135">
+        <v>3987253.378258917</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>55</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116415.345390661</v>
+      </c>
+      <c r="G136">
+        <v>4841465.976391771</v>
+      </c>
+      <c r="H136">
+        <v>3986122.576891163</v>
+      </c>
+      <c r="I136">
+        <v>1116036.285153303</v>
+      </c>
+      <c r="J136">
+        <v>4841861.139828032</v>
+      </c>
+      <c r="K136">
+        <v>3987148.160471203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>55</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116414.112360813</v>
+      </c>
+      <c r="G137">
+        <v>4841482.489192713</v>
+      </c>
+      <c r="H137">
+        <v>3986136.493678172</v>
+      </c>
+      <c r="I137">
+        <v>1116094.805252137</v>
+      </c>
+      <c r="J137">
+        <v>4841812.488238693</v>
+      </c>
+      <c r="K137">
+        <v>3987027.794031344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>55</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116412.960513809</v>
+      </c>
+      <c r="G138">
+        <v>4841499.001993656</v>
+      </c>
+      <c r="H138">
+        <v>3986149.79339484</v>
+      </c>
+      <c r="I138">
+        <v>1116154.766354567</v>
+      </c>
+      <c r="J138">
+        <v>4841763.836649356</v>
+      </c>
+      <c r="K138">
+        <v>3986892.278939342</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>55</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116411.881320096</v>
+      </c>
+      <c r="G139">
+        <v>4841515.514794597</v>
+      </c>
+      <c r="H139">
+        <v>3986162.528447488</v>
+      </c>
+      <c r="I139">
+        <v>1116216.203943982</v>
+      </c>
+      <c r="J139">
+        <v>4841715.185060019</v>
+      </c>
+      <c r="K139">
+        <v>3986741.615195195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>55</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116410.867453587</v>
+      </c>
+      <c r="G140">
+        <v>4841532.027595541</v>
+      </c>
+      <c r="H140">
+        <v>3986174.744837378</v>
+      </c>
+      <c r="I140">
+        <v>1116279.154377514</v>
+      </c>
+      <c r="J140">
+        <v>4841666.533470682</v>
+      </c>
+      <c r="K140">
+        <v>3986575.802798904</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>55</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116409.912581889</v>
+      </c>
+      <c r="G141">
+        <v>4841548.540396483</v>
+      </c>
+      <c r="H141">
+        <v>3986186.483163749</v>
+      </c>
+      <c r="I141">
+        <v>1116343.654907559</v>
+      </c>
+      <c r="J141">
+        <v>4841617.881881343</v>
+      </c>
+      <c r="K141">
+        <v>3986394.841750469</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>55</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116409.011199552</v>
+      </c>
+      <c r="G142">
+        <v>4841565.053197425</v>
+      </c>
+      <c r="H142">
+        <v>3986197.779437877</v>
+      </c>
+      <c r="I142">
+        <v>1116409.743703816</v>
+      </c>
+      <c r="J142">
+        <v>4841569.230292006</v>
+      </c>
+      <c r="K142">
+        <v>3986198.73204989</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>55</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116408.158494263</v>
+      </c>
+      <c r="G143">
+        <v>4841581.565998368</v>
+      </c>
+      <c r="H143">
+        <v>3986208.665749343</v>
+      </c>
+      <c r="I143">
+        <v>1116477.459875881</v>
+      </c>
+      <c r="J143">
+        <v>4841520.57870267</v>
+      </c>
+      <c r="K143">
+        <v>3985987.473697166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>55</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116407.350238586</v>
+      </c>
+      <c r="G144">
+        <v>4841598.078799309</v>
+      </c>
+      <c r="H144">
+        <v>3986219.170815584</v>
+      </c>
+      <c r="I144">
+        <v>1116546.843496385</v>
+      </c>
+      <c r="J144">
+        <v>4841471.927113332</v>
+      </c>
+      <c r="K144">
+        <v>3985761.066692298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>55</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116406.582701659</v>
+      </c>
+      <c r="G145">
+        <v>4841614.591600252</v>
+      </c>
+      <c r="H145">
+        <v>3986229.320438429</v>
+      </c>
+      <c r="I145">
+        <v>1116617.935624713</v>
+      </c>
+      <c r="J145">
+        <v>4841423.275523994</v>
+      </c>
+      <c r="K145">
+        <v>3985519.511035286</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>55</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116405.852576659</v>
+      </c>
+      <c r="G146">
+        <v>4841631.104401194</v>
+      </c>
+      <c r="H146">
+        <v>3986239.1378859</v>
+      </c>
+      <c r="I146">
+        <v>1116690.778331297</v>
+      </c>
+      <c r="J146">
+        <v>4841374.623934656</v>
+      </c>
+      <c r="K146">
+        <v>3985262.80672613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>55</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116405.156920803</v>
+      </c>
+      <c r="G147">
+        <v>4841647.617202137</v>
+      </c>
+      <c r="H147">
+        <v>3986248.644213487</v>
+      </c>
+      <c r="I147">
+        <v>1116765.414722517</v>
+      </c>
+      <c r="J147">
+        <v>4841325.97234532</v>
+      </c>
+      <c r="K147">
+        <v>3984990.953764829</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>55</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116404.493105405</v>
+      </c>
+      <c r="G148">
+        <v>4841664.13000308</v>
+      </c>
+      <c r="H148">
+        <v>3986257.858536075</v>
+      </c>
+      <c r="I148">
+        <v>1116841.888966206</v>
+      </c>
+      <c r="J148">
+        <v>4841277.320755982</v>
+      </c>
+      <c r="K148">
+        <v>3984703.952151385</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>55</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116403.858774057</v>
+      </c>
+      <c r="G149">
+        <v>4841680.642804022</v>
+      </c>
+      <c r="H149">
+        <v>3986266.798259326</v>
+      </c>
+      <c r="I149">
+        <v>1116920.246317791</v>
+      </c>
+      <c r="J149">
+        <v>4841228.669166644</v>
+      </c>
+      <c r="K149">
+        <v>3984401.801885796</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>55</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116403.251807424</v>
+      </c>
+      <c r="G150">
+        <v>4841697.155604964</v>
+      </c>
+      <c r="H150">
+        <v>3986275.479277574</v>
+      </c>
+      <c r="I150">
+        <v>1117000.533147071</v>
+      </c>
+      <c r="J150">
+        <v>4841180.017577306</v>
+      </c>
+      <c r="K150">
+        <v>3984084.502968063</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>55</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116402.670293437</v>
+      </c>
+      <c r="G151">
+        <v>4841713.668405906</v>
+      </c>
+      <c r="H151">
+        <v>3986283.916143891</v>
+      </c>
+      <c r="I151">
+        <v>1117082.79696566</v>
+      </c>
+      <c r="J151">
+        <v>4841131.36598797</v>
+      </c>
+      <c r="K151">
+        <v>3983752.055398185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>55</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116402.112501947</v>
+      </c>
+      <c r="G152">
+        <v>4841730.181206848</v>
+      </c>
+      <c r="H152">
+        <v>3986292.122216877</v>
+      </c>
+      <c r="I152">
+        <v>1117167.0864551</v>
+      </c>
+      <c r="J152">
+        <v>4841082.714398632</v>
+      </c>
+      <c r="K152">
+        <v>3983404.459176164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>55</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116401.576863066</v>
+      </c>
+      <c r="G153">
+        <v>4841746.694007791</v>
+      </c>
+      <c r="H153">
+        <v>3986300.1097879</v>
+      </c>
+      <c r="I153">
+        <v>1117253.451495673</v>
+      </c>
+      <c r="J153">
+        <v>4841034.062809294</v>
+      </c>
+      <c r="K153">
+        <v>3983041.714301998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>55</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116401.061948574</v>
+      </c>
+      <c r="G154">
+        <v>4841763.206808734</v>
+      </c>
+      <c r="H154">
+        <v>3986307.890191843</v>
+      </c>
+      <c r="I154">
+        <v>1117341.943195915</v>
+      </c>
+      <c r="J154">
+        <v>4840985.411219957</v>
+      </c>
+      <c r="K154">
+        <v>3982663.820775688</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>55</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116400.566455898</v>
+      </c>
+      <c r="G155">
+        <v>4841779.719609676</v>
+      </c>
+      <c r="H155">
+        <v>3986315.47390384</v>
+      </c>
+      <c r="I155">
+        <v>1117432.613922865</v>
+      </c>
+      <c r="J155">
+        <v>4840936.75963062</v>
+      </c>
+      <c r="K155">
+        <v>3982270.778597233</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>55</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116400.089194256</v>
+      </c>
+      <c r="G156">
+        <v>4841796.232410618</v>
+      </c>
+      <c r="H156">
+        <v>3986322.870624083</v>
+      </c>
+      <c r="I156">
+        <v>1117525.517333051</v>
+      </c>
+      <c r="J156">
+        <v>4840888.108041282</v>
+      </c>
+      <c r="K156">
+        <v>3981862.587766635</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>55</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116399.629072612</v>
+      </c>
+      <c r="G157">
+        <v>4841812.745211561</v>
+      </c>
+      <c r="H157">
+        <v>3986330.089352426</v>
+      </c>
+      <c r="I157">
+        <v>1117620.708404243</v>
+      </c>
+      <c r="J157">
+        <v>4840839.456451944</v>
+      </c>
+      <c r="K157">
+        <v>3981439.248283892</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>55</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116399.18508919</v>
+      </c>
+      <c r="G158">
+        <v>4841829.258012502</v>
+      </c>
+      <c r="H158">
+        <v>3986337.138454224</v>
+      </c>
+      <c r="I158">
+        <v>1117718.243467988</v>
+      </c>
+      <c r="J158">
+        <v>4840790.804862607</v>
+      </c>
+      <c r="K158">
+        <v>3981000.760149005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>55</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116398.756322301</v>
+      </c>
+      <c r="G159">
+        <v>4841845.770813446</v>
+      </c>
+      <c r="H159">
+        <v>3986344.025718605</v>
+      </c>
+      <c r="I159">
+        <v>1117818.180242948</v>
+      </c>
+      <c r="J159">
+        <v>4840742.15327327</v>
+      </c>
+      <c r="K159">
+        <v>3980547.123361974</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>55</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116398.341922293</v>
+      </c>
+      <c r="G160">
+        <v>4841862.283614388</v>
+      </c>
+      <c r="H160">
+        <v>3986350.758410214</v>
+      </c>
+      <c r="I160">
+        <v>1117920.577869052</v>
+      </c>
+      <c r="J160">
+        <v>4840693.501683932</v>
+      </c>
+      <c r="K160">
+        <v>3980078.337922798</v>
       </c>
     </row>
   </sheetData>
